--- a/Data/Test_Data.xlsx
+++ b/Data/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Weblink" sheetId="8" r:id="rId1"/>
@@ -13,15 +13,16 @@
     <sheet name="Datasets" sheetId="3" r:id="rId4"/>
     <sheet name="Roles" sheetId="4" r:id="rId5"/>
     <sheet name="DG" sheetId="5" r:id="rId6"/>
-    <sheet name="Pumps" sheetId="6" r:id="rId7"/>
-    <sheet name="PumpsFailed" sheetId="7" r:id="rId8"/>
+    <sheet name="DG_delete" sheetId="9" r:id="rId7"/>
+    <sheet name="Pumps" sheetId="6" r:id="rId8"/>
+    <sheet name="PumpsFailed" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Username</t>
   </si>
@@ -524,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -775,7 +776,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,6 +824,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -850,7 +881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>

--- a/Data/Test_Data.xlsx
+++ b/Data/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Weblink" sheetId="8" r:id="rId1"/>
@@ -12,16 +12,18 @@
     <sheet name="users" sheetId="2" r:id="rId3"/>
     <sheet name="Datasets" sheetId="3" r:id="rId4"/>
     <sheet name="Roles" sheetId="4" r:id="rId5"/>
-    <sheet name="DG" sheetId="5" r:id="rId6"/>
-    <sheet name="Pumps" sheetId="6" r:id="rId7"/>
-    <sheet name="PumpsFailed" sheetId="7" r:id="rId8"/>
+    <sheet name="Roles_Editing" sheetId="9" r:id="rId6"/>
+    <sheet name="Roles_Deletion" sheetId="10" r:id="rId7"/>
+    <sheet name="DG" sheetId="5" r:id="rId8"/>
+    <sheet name="Pumps" sheetId="6" r:id="rId9"/>
+    <sheet name="PumpsFailed" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Username</t>
   </si>
@@ -104,12 +106,6 @@
     <t>FirstName1xc</t>
   </si>
   <si>
-    <t>Testing123</t>
-  </si>
-  <si>
-    <t>Testing213</t>
-  </si>
-  <si>
     <t>DG_Name</t>
   </si>
   <si>
@@ -138,13 +134,37 @@
   </si>
   <si>
     <t>https://10.1.22.126/AGW</t>
+  </si>
+  <si>
+    <t>Role Permissions</t>
+  </si>
+  <si>
+    <t>Clinical - Infusions</t>
+  </si>
+  <si>
+    <t>Clinical - Data Sets</t>
+  </si>
+  <si>
+    <t>TestingC2</t>
+  </si>
+  <si>
+    <t>TestingC3</t>
+  </si>
+  <si>
+    <t>TestingC4</t>
+  </si>
+  <si>
+    <t>Edited permissions</t>
+  </si>
+  <si>
+    <t>Devices - Logs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +192,12 @@
       <b/>
       <sz val="9"/>
       <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -208,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -217,6 +243,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -524,26 +551,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -739,30 +794,120 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -786,21 +931,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -808,10 +953,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -822,7 +967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -837,40 +982,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test_Data.xlsx
+++ b/Data/Test_Data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Username</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>https://10.1.22.126/AGW</t>
+  </si>
+  <si>
+    <t>Group2_new</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,10 +831,13 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
@@ -845,7 +851,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test_Data.xlsx
+++ b/Data/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weblink" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Username</t>
   </si>
@@ -66,15 +66,6 @@
     <t>user_name</t>
   </si>
   <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Username1</t>
-  </si>
-  <si>
-    <t>Seconduser</t>
-  </si>
-  <si>
     <t>DataSet URL</t>
   </si>
   <si>
@@ -96,15 +87,6 @@
     <t>Role Name</t>
   </si>
   <si>
-    <t>Username1hl2</t>
-  </si>
-  <si>
-    <t>LastName11bv</t>
-  </si>
-  <si>
-    <t>FirstName1xc</t>
-  </si>
-  <si>
     <t>Testing123</t>
   </si>
   <si>
@@ -142,6 +124,78 @@
   </si>
   <si>
     <t>Group2_new</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>FUF</t>
+  </si>
+  <si>
+    <t>FUL</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Clinician</t>
+  </si>
+  <si>
+    <t>Randa</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>SUF</t>
+  </si>
+  <si>
+    <t>SUL</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Biomed</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>TUF</t>
+  </si>
+  <si>
+    <t>TUL</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Pharmacist</t>
+  </si>
+  <si>
+    <t>Alaa</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>DUF</t>
+  </si>
+  <si>
+    <t>DUL</t>
+  </si>
+  <si>
+    <t>Smsm</t>
   </si>
 </sst>
 </file>
@@ -532,16 +586,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -560,14 +614,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -578,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -589,7 +643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -597,7 +651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -605,7 +659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -624,21 +678,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="1" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -646,53 +700,138 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="F4" r:id="rId5"/>
+    <hyperlink ref="G4" r:id="rId6"/>
+    <hyperlink ref="F5" r:id="rId7"/>
+    <hyperlink ref="G5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -706,33 +845,33 @@
       <selection activeCell="C2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -749,24 +888,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -782,40 +921,40 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -830,28 +969,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -867,19 +1006,19 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -895,19 +1034,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test_Data.xlsx
+++ b/Data/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Weblink" sheetId="8" r:id="rId1"/>
@@ -15,14 +15,15 @@
     <sheet name="DG" sheetId="5" r:id="rId6"/>
     <sheet name="DG_delete" sheetId="9" r:id="rId7"/>
     <sheet name="Pumps" sheetId="6" r:id="rId8"/>
-    <sheet name="PumpsFailed" sheetId="7" r:id="rId9"/>
+    <sheet name="Assign_to_DG" sheetId="10" r:id="rId9"/>
+    <sheet name="PumpsFailed" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>Username</t>
   </si>
@@ -111,12 +112,6 @@
     <t>Pumps URL</t>
   </si>
   <si>
-    <t>D:\Automation Python\ACE_Project\Data\pumps.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Automation Python\ACE_Project\Data\InvalidPumpsFile.xlsx</t>
-  </si>
-  <si>
     <t>Web URL</t>
   </si>
   <si>
@@ -196,6 +191,18 @@
   </si>
   <si>
     <t>Smsm</t>
+  </si>
+  <si>
+    <t>File location</t>
+  </si>
+  <si>
+    <t>AssigntoDG.xlsx</t>
+  </si>
+  <si>
+    <t>InvalidPumpsFile.xlsx</t>
+  </si>
+  <si>
+    <t>pumps.xlsx</t>
   </si>
 </sst>
 </file>
@@ -266,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -275,6 +282,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -586,22 +594,50 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -614,14 +650,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -632,7 +668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -643,7 +679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -651,7 +687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -659,7 +695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -680,19 +716,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="1" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -700,10 +736,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>13</v>
@@ -715,24 +751,24 @@
         <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -741,24 +777,24 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
@@ -767,24 +803,24 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
@@ -793,24 +829,24 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -819,7 +855,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -845,14 +881,14 @@
       <selection activeCell="C2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -863,7 +899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -888,22 +924,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -921,13 +957,13 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -938,7 +974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -949,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -973,24 +1009,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1002,23 +1038,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="1" max="1" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1031,22 +1067,22 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test_Data.xlsx
+++ b/Data/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Weblink" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Username</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>Devices - Logs</t>
+  </si>
+  <si>
+    <t>C:\Users\efarrag\Documents\1.wma</t>
+  </si>
+  <si>
+    <t>1.wma</t>
   </si>
 </sst>
 </file>
@@ -234,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -244,6 +250,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -751,10 +760,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,6 +793,17 @@
       </c>
       <c r="C2" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="7">
+        <v>6757</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Data/Test_Data.xlsx
+++ b/Data/Test_Data.xlsx
@@ -4,26 +4,29 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Weblink" sheetId="8" r:id="rId1"/>
     <sheet name="login" sheetId="1" r:id="rId2"/>
     <sheet name="users" sheetId="2" r:id="rId3"/>
     <sheet name="Datasets" sheetId="3" r:id="rId4"/>
-    <sheet name="Roles" sheetId="4" r:id="rId5"/>
-    <sheet name="DG" sheetId="5" r:id="rId6"/>
-    <sheet name="DG_delete" sheetId="9" r:id="rId7"/>
-    <sheet name="Pumps" sheetId="6" r:id="rId8"/>
-    <sheet name="Assign_to_DG" sheetId="10" r:id="rId9"/>
-    <sheet name="PumpsFailed" sheetId="7" r:id="rId10"/>
+    <sheet name="Datasets_Deletion" sheetId="13" r:id="rId5"/>
+    <sheet name="Roles" sheetId="4" r:id="rId6"/>
+    <sheet name="Roles_Editing" sheetId="11" r:id="rId7"/>
+    <sheet name="Roles_Deletion" sheetId="12" r:id="rId8"/>
+    <sheet name="DG" sheetId="5" r:id="rId9"/>
+    <sheet name="DG_delete" sheetId="9" r:id="rId10"/>
+    <sheet name="Pumps" sheetId="6" r:id="rId11"/>
+    <sheet name="Assign_to_DG" sheetId="10" r:id="rId12"/>
+    <sheet name="PumpsFailed" sheetId="7" r:id="rId13"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>Username</t>
   </si>
@@ -67,15 +70,9 @@
     <t>user_name</t>
   </si>
   <si>
-    <t>DataSet URL</t>
-  </si>
-  <si>
     <t>DataSet ID Code</t>
   </si>
   <si>
-    <t>C:\VP Only 4DE7.mgr</t>
-  </si>
-  <si>
     <t>4DE7</t>
   </si>
   <si>
@@ -203,13 +200,31 @@
   </si>
   <si>
     <t>pumps.xlsx</t>
+  </si>
+  <si>
+    <t>Permissions</t>
+  </si>
+  <si>
+    <t>Dataset Name</t>
+  </si>
+  <si>
+    <t>VP Only</t>
+  </si>
+  <si>
+    <t>Dataset Code</t>
+  </si>
+  <si>
+    <t>VPs Only 4DE7.mnr</t>
+  </si>
+  <si>
+    <t>67V8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,12 +247,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -273,12 +282,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -598,12 +604,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -615,6 +621,100 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="94.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -628,13 +728,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
+      <c r="A1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -644,10 +744,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,13 +758,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -701,12 +801,23 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -729,46 +840,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -777,24 +888,24 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
@@ -803,24 +914,24 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
@@ -829,24 +940,24 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
         <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -855,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -875,39 +986,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="B2:C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -918,10 +1030,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,18 +1077,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>20</v>
+      <c r="A1" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -949,7 +1096,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -964,22 +1168,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -987,102 +1191,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="53.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="94.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test_Data.xlsx
+++ b/Data/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weblink" sheetId="8" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>Clinician</t>
   </si>
   <si>
-    <t>Randa</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>Biomed</t>
   </si>
   <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
     <t>French</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
     <t>Pharmacist</t>
   </si>
   <si>
-    <t>Alaa</t>
-  </si>
-  <si>
     <t>German</t>
   </si>
   <si>
@@ -187,9 +178,6 @@
     <t>DUL</t>
   </si>
   <si>
-    <t>Smsm</t>
-  </si>
-  <si>
     <t>File location</t>
   </si>
   <si>
@@ -218,6 +206,18 @@
   </si>
   <si>
     <t>67V8</t>
+  </si>
+  <si>
+    <t>FirstUser</t>
+  </si>
+  <si>
+    <t>SecondUser</t>
+  </si>
+  <si>
+    <t>ThirdUser</t>
+  </si>
+  <si>
+    <t>ForthUser</t>
   </si>
 </sst>
 </file>
@@ -600,14 +600,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -628,22 +628,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -655,30 +655,25 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.85546875" customWidth="1"/>
+    <col min="1" max="1" width="53.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -694,19 +689,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="94.28515625" customWidth="1"/>
+    <col min="1" max="1" width="94.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -719,22 +714,22 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -746,18 +741,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -768,7 +763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -779,7 +774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -787,7 +782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -795,7 +790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -803,12 +798,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -827,19 +822,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="1" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -865,7 +860,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -879,7 +874,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -888,24 +883,24 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
@@ -914,24 +909,24 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
@@ -940,24 +935,24 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -966,7 +961,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -992,13 +987,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1014,12 +1009,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1036,23 +1031,23 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1071,22 +1066,22 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1104,25 +1099,25 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1138,12 +1133,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -1161,13 +1156,13 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -1178,7 +1173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1189,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>

--- a/Data/Test_Data.xlsx
+++ b/Data/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Weblink" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>Username</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>67V8</t>
+  </si>
+  <si>
+    <t>2-33-Maxi-A3AA.mgr</t>
+  </si>
+  <si>
+    <t>A3AA</t>
   </si>
 </sst>
 </file>
@@ -746,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -986,10 +992,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,6 +1028,14 @@
         <v>63</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1032,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Test_Data.xlsx
+++ b/Data/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Weblink" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>Username</t>
   </si>
@@ -85,12 +85,6 @@
     <t>Role Name</t>
   </si>
   <si>
-    <t>Testing123</t>
-  </si>
-  <si>
-    <t>Testing213</t>
-  </si>
-  <si>
     <t>DG_Name</t>
   </si>
   <si>
@@ -224,6 +218,27 @@
   </si>
   <si>
     <t>A3AA</t>
+  </si>
+  <si>
+    <t>Role Permissions</t>
+  </si>
+  <si>
+    <t>ClincRole</t>
+  </si>
+  <si>
+    <t>TechRole</t>
+  </si>
+  <si>
+    <t>Clinical - Infusions</t>
+  </si>
+  <si>
+    <t>Devices - Pumps</t>
+  </si>
+  <si>
+    <t>Clinical - Delete Data Sets</t>
+  </si>
+  <si>
+    <t>Devices - Logs</t>
   </si>
 </sst>
 </file>
@@ -610,12 +625,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -641,17 +656,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -674,12 +689,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -707,12 +722,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -735,12 +750,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -853,10 +868,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>13</v>
@@ -868,24 +883,24 @@
         <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -894,24 +909,24 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
@@ -920,24 +935,24 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
@@ -946,24 +961,24 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
         <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -972,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -994,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1022,18 +1037,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1046,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1058,15 +1073,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1079,30 +1094,40 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1115,7 +1140,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,17 +1153,23 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1148,9 +1179,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1160,6 +1193,16 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1183,21 +1226,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1205,10 +1248,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>2</v>

--- a/Data/Test_Data.xlsx
+++ b/Data/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Weblink" sheetId="8" r:id="rId1"/>
@@ -1009,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1096,7 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Data/Test_Data.xlsx
+++ b/Data/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weblink" sheetId="8" r:id="rId1"/>
@@ -133,9 +133,6 @@
     <t>Clinician</t>
   </si>
   <si>
-    <t>Randa</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>Biomed</t>
   </si>
   <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
     <t>French</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t>Pharmacist</t>
   </si>
   <si>
-    <t>Alaa</t>
-  </si>
-  <si>
     <t>German</t>
   </si>
   <si>
@@ -181,9 +172,6 @@
     <t>DUL</t>
   </si>
   <si>
-    <t>Smsm</t>
-  </si>
-  <si>
     <t>File location</t>
   </si>
   <si>
@@ -239,6 +227,18 @@
   </si>
   <si>
     <t>Devices - Logs</t>
+  </si>
+  <si>
+    <t>Randa1</t>
+  </si>
+  <si>
+    <t>Ahmed1</t>
+  </si>
+  <si>
+    <t>Alaa1</t>
+  </si>
+  <si>
+    <t>Smsm1</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -722,12 +722,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +755,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,7 +900,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -909,24 +909,24 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
@@ -935,24 +935,24 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
@@ -961,24 +961,24 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1037,18 +1037,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1073,15 +1073,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1096,7 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1111,23 +1111,23 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1153,23 +1153,23 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
         <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1197,12 +1197,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test_Data.xlsx
+++ b/Data/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Weblink" sheetId="8" r:id="rId1"/>
@@ -211,12 +211,6 @@
     <t>Role Permissions</t>
   </si>
   <si>
-    <t>ClincRole</t>
-  </si>
-  <si>
-    <t>TechRole</t>
-  </si>
-  <si>
     <t>Clinical - Infusions</t>
   </si>
   <si>
@@ -229,16 +223,22 @@
     <t>Devices - Logs</t>
   </si>
   <si>
-    <t>Randa1</t>
-  </si>
-  <si>
-    <t>Ahmed1</t>
-  </si>
-  <si>
-    <t>Alaa1</t>
-  </si>
-  <si>
-    <t>Smsm1</t>
+    <t>FirstUserAB</t>
+  </si>
+  <si>
+    <t>SecondUserAB</t>
+  </si>
+  <si>
+    <t>ThirdUserAB</t>
+  </si>
+  <si>
+    <t>ForthUserAB</t>
+  </si>
+  <si>
+    <t>ClincRole1</t>
+  </si>
+  <si>
+    <t>TechRole1</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,7 +900,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -926,7 +926,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
@@ -952,7 +952,7 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
@@ -978,7 +978,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,18 +1116,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,18 +1158,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,12 +1197,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
